--- a/Index.xlsx
+++ b/Index.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://otcflowotcflow.sharepoint.com/sites/FR-Analysts/Gedeelde documenten/General/008. Analyst Team File/Stratégie/Front Office/Indice de prix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC FIXE HUGO\Documents\Time_series_Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_DE33E0D2C574AB05C5B6A94F5469ACB314C4BD0B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72B77AF0-6439-4284-B115-BE69C7B1E4B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9089BFC-04F6-4FC4-B17B-4B93F4C074D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classique" sheetId="1" r:id="rId1"/>
-    <sheet name="Précarité" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Précarité" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -82,6 +83,9 @@
   </si>
   <si>
     <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -128,12 +132,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,13 +424,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3580,14 +3588,223 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2008B8-0B7C-478F-A845-9947F5AA1F0A}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>Classique!A1</f>
+        <v>Date</v>
+      </c>
+      <c r="B1" t="str">
+        <f>Classique!B1</f>
+        <v>SPOT</v>
+      </c>
+      <c r="C1" t="str">
+        <f>Classique!C1</f>
+        <v>Q1</v>
+      </c>
+      <c r="D1" t="str">
+        <f>Classique!D1</f>
+        <v>Q2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="str">
+        <f>Classique!L1</f>
+        <v>Q10</v>
+      </c>
+      <c r="G1" t="str">
+        <f>Classique!M1</f>
+        <v>Q11</v>
+      </c>
+      <c r="H1" t="str">
+        <f>Classique!N1</f>
+        <v>Q12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <f>Classique!A2</f>
+        <v>45040</v>
+      </c>
+      <c r="B2">
+        <f>ROUND(Classique!B2,2)</f>
+        <v>7.21</v>
+      </c>
+      <c r="C2">
+        <f>ROUND(Classique!C2,2)</f>
+        <v>7.26</v>
+      </c>
+      <c r="D2">
+        <f>ROUND(Classique!D2,2)</f>
+        <v>7.31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <f>ROUND(Classique!L2,2)</f>
+        <v>7.98</v>
+      </c>
+      <c r="G2">
+        <f>ROUND(Classique!M2,2)</f>
+        <v>8.06</v>
+      </c>
+      <c r="H2">
+        <f>Classique!N2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <f>Classique!A3</f>
+        <v>45047</v>
+      </c>
+      <c r="B3">
+        <f>ROUND(Classique!B3,2)</f>
+        <v>7.32</v>
+      </c>
+      <c r="C3">
+        <f>ROUND(Classique!C3,2)</f>
+        <v>7.36</v>
+      </c>
+      <c r="D3">
+        <f>ROUND(Classique!D3,2)</f>
+        <v>7.41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <f>ROUND(Classique!L3,2)</f>
+        <v>7.95</v>
+      </c>
+      <c r="G3">
+        <f>ROUND(Classique!M3,2)</f>
+        <v>8.01</v>
+      </c>
+      <c r="H3">
+        <f>Classique!N3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f>Classique!A90</f>
+        <v>45663</v>
+      </c>
+      <c r="B5">
+        <f>Classique!B90</f>
+        <v>7.97</v>
+      </c>
+      <c r="C5">
+        <f>Classique!C90</f>
+        <v>7.97</v>
+      </c>
+      <c r="D5">
+        <f>Classique!D90</f>
+        <v>7.97</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <f>Classique!L90</f>
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G5">
+        <f>Classique!M90</f>
+        <v>8.31</v>
+      </c>
+      <c r="H5">
+        <f>Classique!N90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f>Classique!A91</f>
+        <v>45670</v>
+      </c>
+      <c r="B6">
+        <f>Classique!B91</f>
+        <v>8.02</v>
+      </c>
+      <c r="C6">
+        <f>Classique!C91</f>
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="D6">
+        <f>Classique!D91</f>
+        <v>8.02</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <f>Classique!L91</f>
+        <v>8.34</v>
+      </c>
+      <c r="G6">
+        <f>Classique!M91</f>
+        <v>8.36</v>
+      </c>
+      <c r="H6">
+        <f>Classique!N91</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874A6B2E-59CA-4BA9-BB1E-970044358245}">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
   </cols>
@@ -6627,6 +6844,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="a3aa306a-4326-4cdb-80d6-30ee1a262f5a">
@@ -6635,15 +6861,6 @@
     <TaxCatchAll xmlns="59da0b8f-7105-4da3-8f75-c420c2b0674c" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6882,6 +7099,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8BCC1CB-5D6A-49B5-87B5-51A17A41FA78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{138F88F4-29B2-4AFE-94F7-692E2C0E15FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6892,14 +7117,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8BCC1CB-5D6A-49B5-87B5-51A17A41FA78}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686E21D1-FB56-4D24-BACD-384F55E6A547}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a3aa306a-4326-4cdb-80d6-30ee1a262f5a"/>
+    <ds:schemaRef ds:uri="59da0b8f-7105-4da3-8f75-c420c2b0674c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686E21D1-FB56-4D24-BACD-384F55E6A547}"/>
 </file>